--- a/Sprint 2.xlsx
+++ b/Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5530416-2723-8C4C-99F6-85FB29FE4662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46DB1CC-AFDC-5043-B254-5EBC265C80FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="460" windowWidth="21600" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Sprint 1 - Endurance</t>
-  </si>
-  <si>
     <t>Develop a plan (Gantt chart)</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Sprint 2-Speed</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="B1:BP29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="2:68" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
@@ -1113,19 +1113,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>6</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="5" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6">
         <v>6</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="11" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6">
         <v>6</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="12" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="6">
         <v>9</v>
